--- a/MarkingTemplate.xlsx
+++ b/MarkingTemplate.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan Bonneau\Documents\ENG\ELEC377TA\AutoMarker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B26A9C-2D32-49F5-BA29-069CF5A07BE6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3283AEDC-626B-4203-87FA-8CA6ECB32F38}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Group</t>
   </si>
@@ -40,22 +40,13 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>hey good job</t>
-  </si>
-  <si>
-    <t>bad luck</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>Lab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -889,21 +880,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -926,66 +914,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
